--- a/VERA_CRUZ.xlsx
+++ b/VERA_CRUZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4AAE109-9B6B-438A-B18C-8597A8CECA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB00E7F-F5C8-4EAE-B7DE-6779487907AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1194,7 +1194,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{33166C19-C45D-4CCC-B478-0D30A7482AB4}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F3B17A06-B1B9-4A06-AEBC-BAE4C5A9FE74}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1224,10 +1224,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706EF7F0-51CC-434A-AC01-E7A69A308785}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6D6F32-815E-46A2-9F91-6AFA3909EDDD}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1265,7 +1265,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CB5D85-D547-4171-824E-B5E8628E9786}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44ECB04F-C97E-4F2C-80BC-BD0D828BD8B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1328,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E0DDB9-BE1B-479F-B06A-78543F1FFB06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FD08DD-524F-4856-9C2F-186F2D81555A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1347,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913BAA1C-14CC-A1BE-89B5-36171663B27D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE8A4B0-14DB-8520-0EF4-ACD517F599EA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1396,7 +1396,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B481166D-EDAD-2FE3-639F-C1DCEA7E161F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECD06FB-3CCD-F988-2304-EC147DE34674}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1415,7 +1415,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21EC832F-78E8-BD02-BB1F-CD81AF42FF98}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69CE17C-C96A-7876-170B-8055EA8E8A50}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1446,7 +1446,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB4791D-A8E3-921F-1712-FA697A7FDFFF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C51A7AD-5027-2700-0A5E-8924AC2A903E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1477,7 +1477,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE17E349-222B-7FFA-B4B2-180047E4731E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB0096A-B881-A122-02F8-07F0ADBEE493}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1520,7 +1520,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F55782-4CEE-4146-9BD8-FD53C22CF4B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C68236F-A6A9-49DE-9B32-C911E999AD04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1558,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5709CF3B-607D-4555-8121-093D3C6B0C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1621EC-28C3-4B85-B53B-52A1DCDAA8E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1601,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68294AC-691B-4F7C-B6CD-796F5AD8C3F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2E786E-370B-4F38-9B73-701DB8E50418}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C95D41-7B1D-423E-BE01-7574713F052B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB040B79-BFD3-4F7A-BA4D-D365CDC31544}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/VERA_CRUZ.xlsx
+++ b/VERA_CRUZ.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB00E7F-F5C8-4EAE-B7DE-6779487907AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B565F86-097D-47E3-9C7D-22B0E92BE06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="296">
   <si>
     <t>COMARCA</t>
   </si>
@@ -914,15 +913,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>VERA CRUZ</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1098,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1174,27 +1164,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{F3B17A06-B1B9-4A06-AEBC-BAE4C5A9FE74}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{DEC8E94C-C153-47E6-B557-AB1B6A9D3179}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1224,10 +1199,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6D6F32-815E-46A2-9F91-6AFA3909EDDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89F8EAA-581B-4127-AC70-C46C3883B52F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1265,7 +1240,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44ECB04F-C97E-4F2C-80BC-BD0D828BD8B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4023AC-4B7C-40E9-AB13-6405D52435AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1303,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FD08DD-524F-4856-9C2F-186F2D81555A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B10895-0DE4-45A2-A5B6-7D3FC973E780}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1322,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE8A4B0-14DB-8520-0EF4-ACD517F599EA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F587E55F-87E4-3DBF-EFA4-F043484CE3F7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1396,7 +1371,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECD06FB-3CCD-F988-2304-EC147DE34674}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E877782A-597D-B0E2-200F-4141EC675AC4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1415,7 +1390,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69CE17C-C96A-7876-170B-8055EA8E8A50}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754CEC1A-2801-6809-2D2B-B5618A4FF3AF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1446,7 +1421,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C51A7AD-5027-2700-0A5E-8924AC2A903E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA3D798-70EB-E7F1-0665-2E51DA45D8A9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1477,7 +1452,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB0096A-B881-A122-02F8-07F0ADBEE493}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256D366F-7FD2-D3FC-95DA-9C4B1E6EEF5F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1520,7 +1495,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C68236F-A6A9-49DE-9B32-C911E999AD04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714A8DDA-72D5-4D12-8EF0-234407C64644}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1533,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1621EC-28C3-4B85-B53B-52A1DCDAA8E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC81760B-470A-45DC-A40F-750F0E868E26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1576,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2E786E-370B-4F38-9B73-701DB8E50418}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C170C6-EE15-42C7-A715-2423283A50FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB040B79-BFD3-4F7A-BA4D-D365CDC31544}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488C3A72-FD42-483F-84C6-F8F69173D22C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1926,98 +1901,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="33"/>
-    <col min="6" max="6" width="2" style="33" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="33"/>
+    <col min="1" max="5" width="12.5703125" style="28"/>
+    <col min="6" max="6" width="2" style="28" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="28" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="32"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="32"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="32"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="32"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="32"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="32"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="32"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="32"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="32"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="32"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="32"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="32"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="32"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="32"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="32"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="32"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="32"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="32"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="32"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="32"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="32"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="32"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="32"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="32"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="32"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="32"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="32"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="32"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="32"/>
+      <c r="F29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5454,52 +5429,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="E1" s="28">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="31">
-        <v>25</v>
-      </c>
-      <c r="C2" s="29">
-        <v>1.653220473482344E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/VERA_CRUZ.xlsx
+++ b/VERA_CRUZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B565F86-097D-47E3-9C7D-22B0E92BE06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44CA18C5-50FD-4B41-98FB-FE3D863945A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{DEC8E94C-C153-47E6-B557-AB1B6A9D3179}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E66A75CD-95EC-4BB9-B66A-369BA987C1CC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1199,10 +1199,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89F8EAA-581B-4127-AC70-C46C3883B52F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE1C449-D4AE-44E0-B379-D9D12095891E}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1240,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4023AC-4B7C-40E9-AB13-6405D52435AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415790D0-A077-4639-B706-17AAE18ECD70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,7 +1303,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B10895-0DE4-45A2-A5B6-7D3FC973E780}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59B688AA-722E-42D1-9B86-ACAF79943CFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1322,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F587E55F-87E4-3DBF-EFA4-F043484CE3F7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D335A3-9645-71BB-6E1F-248DD2AA5DD2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1371,7 +1371,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E877782A-597D-B0E2-200F-4141EC675AC4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A67196-9120-4E03-C171-057D844F74B2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1390,7 +1390,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754CEC1A-2801-6809-2D2B-B5618A4FF3AF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECA03A5-8DD5-EB1C-4F06-03253488674C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1421,7 +1421,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA3D798-70EB-E7F1-0665-2E51DA45D8A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21DA48C-B3E4-9BDD-2994-720BA1C0E20D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1452,7 +1452,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256D366F-7FD2-D3FC-95DA-9C4B1E6EEF5F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178BFB3F-4690-8A90-1B15-98F48A06C4D7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1495,7 +1495,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714A8DDA-72D5-4D12-8EF0-234407C64644}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F631E3B-D02A-418A-A791-0323757E4856}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1533,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC81760B-470A-45DC-A40F-750F0E868E26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B19B61E8-CA4D-4E0E-90AA-35686666B33E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,50 +1558,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C170C6-EE15-42C7-A715-2423283A50FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1889,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488C3A72-FD42-483F-84C6-F8F69173D22C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022F7CCB-A729-4CD0-B3DE-BBA514B569D7}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
